--- a/resources/sensitivity/templates/Scenario Sensitivity_template.xlsx
+++ b/resources/sensitivity/templates/Scenario Sensitivity_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsc\OneDrive - San Diego Association of Governments\gsc\git\ABM-Reporting\resources\sensitivity\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{2FB24583-BC3E-4166-B4DF-57299599C89C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A9C45FC9-D040-417E-9990-9327C5E6065E}"/>
+  <xr:revisionPtr revIDLastSave="878" documentId="8_{2FB24583-BC3E-4166-B4DF-57299599C89C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{577A652C-7B2E-48C5-A8B1-D2F708BD4E1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="7" xr2:uid="{6EEF756D-D519-4755-B2F8-00FA8C5588B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6EEF756D-D519-4755-B2F8-00FA8C5588B2}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="highwayNetwork" sheetId="5" r:id="rId6"/>
     <sheet name="transitModeShareTripLength" sheetId="6" r:id="rId7"/>
     <sheet name="transitNetwork" sheetId="11" r:id="rId8"/>
-    <sheet name="workSchoolLocation" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>person trip mode share</t>
   </si>
@@ -134,12 +133,6 @@
     <t>transit transfers mode share</t>
   </si>
   <si>
-    <t>work segment distance and persons</t>
-  </si>
-  <si>
-    <t>student status distance and persons</t>
-  </si>
-  <si>
     <t>transit boardings per transit trip</t>
   </si>
   <si>
@@ -227,7 +220,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,6 +255,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -279,12 +275,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Schroeder, Gregor" id="{6CA9E8BB-82D4-4115-A0DF-C70044C34D57}" userId="S::gsc@sandag.org::b5dc7317-29c0-420d-a3e1-6a07614f8ec9" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,19 +626,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF794C8C-60B0-484A-9852-57E9FB32A558}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -663,7 +658,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -676,7 +671,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -689,6 +684,1489 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00AB29F-ACF3-4A6E-AE11-7FBDB2F62988}">
+  <dimension ref="A1:M78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72879900-083E-477F-9507-2381E1604A11}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L38" sqref="A23:L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
@@ -859,57 +2337,54 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -923,7 +2398,6 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -937,7 +2411,6 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -951,7 +2424,6 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -965,7 +2437,6 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -979,7 +2450,6 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -993,7 +2463,6 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1007,7 +2476,6 @@
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1021,7 +2489,6 @@
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1034,8 +2501,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1048,8 +2514,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1062,41 +2527,97 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00AB29F-ACF3-4A6E-AE11-7FBDB2F62988}">
-  <dimension ref="A1:L70"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA4C733-06C0-4E6D-B5B1-F73922724320}">
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="L78" sqref="A63:L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1278,52 +2799,52 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>5</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
@@ -1468,30 +2989,70 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
@@ -1507,43 +3068,25 @@
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="A41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
@@ -1662,31 +3205,70 @@
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
     </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+    </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
@@ -1728,43 +3310,25 @@
       <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
+      <c r="A61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
@@ -1857,1705 +3421,109 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72879900-083E-477F-9507-2381E1604A11}">
-  <dimension ref="A1:R34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" activeCellId="1" sqref="A3:R16 A21:R34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA4C733-06C0-4E6D-B5B1-F73922724320}">
-  <dimension ref="A1:R70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3567,7 +3535,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFA30EE-5049-454C-B549-17B2BA11BF33}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,36 +3921,36 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
@@ -4061,48 +4029,62 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
@@ -4167,68 +4149,62 @@
       <c r="E52" s="12"/>
       <c r="F52" s="11"/>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="11"/>
+    </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="11"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
@@ -4286,8 +4262,71 @@
       <c r="E70" s="12"/>
       <c r="F70" s="11"/>
     </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4295,8 +4334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AE12B8-D937-44AD-9F2F-AD05245FF140}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,7 +4528,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4749,7 +4788,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4834,91 +4873,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E36AB74-3589-4D0A-B907-F90ED5BF1402}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>